--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pooja_giri/Desktop/SeleniumHackathon2025/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECDE9A-97CE-CA47-B836-5C14A5940E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-31400" yWindow="440" windowWidth="28040" windowHeight="16940" xr2:uid="{645C594F-CC8E-8542-93AC-92A6E1D5C746}"/>
+    <workbookView xWindow="-31404" yWindow="444" windowWidth="28044" windowHeight="16944"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
     <sheet name="BATCH" sheetId="3" r:id="rId3"/>
     <sheet name="CLASS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>USER</t>
   </si>
@@ -55,9 +49,6 @@
     <t>Team10</t>
   </si>
   <si>
-    <t>Team10@2025</t>
-  </si>
-  <si>
     <t>VALID</t>
   </si>
   <si>
@@ -221,13 +212,22 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>sdetnumpyninja@gmail.com</t>
+  </si>
+  <si>
+    <t>Feb@2025</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -415,7 +415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -609,26 +609,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88901902-0AC2-5E4F-94C8-6E1A0C675D49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,104 +643,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F063D067-56FE-5C4C-BADA-18C1410FB629}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71B04A1-FDDB-F54E-B1DF-F03FF1570599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -748,90 +752,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC647F8-26E0-6F40-AAF5-B19413C98221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F3" s="2">
         <f>--F4</f>
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -840,139 +844,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF19FE3-FD52-7D4B-A0E9-F4D1B0176845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="4">
         <v>45313</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="LOGIN" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="PROGRAM" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="BATCH" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="CLASS" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
+    <sheet name="PROGRAM" sheetId="2" r:id="rId2"/>
+    <sheet name="BATCH" sheetId="3" r:id="rId3"/>
+    <sheet name="CLASS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,204 +24,200 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
-    <t xml:space="preserve">USER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSWORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdetnumpyninja@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb@2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xskau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVALID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEARCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM_DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Java Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Java Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Programm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPROGRAM_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATCH_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATCH_DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATCH_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBER_OF_CLASSSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playwright03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorrect Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBATCH_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_OF_CLASSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_TOPIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAFF_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_COMMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_RECORDINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMPO-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saranya M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classnotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesrecordings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Class batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KFDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>sdetnumpyninja@gmail.com</t>
+  </si>
+  <si>
+    <t>Feb@2025</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>xskau</t>
+  </si>
+  <si>
+    <t>dbr</t>
+  </si>
+  <si>
+    <t>rdb</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>PROGRAM_NAME</t>
+  </si>
+  <si>
+    <t>PROGRAM_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PROGRAM_STATUS</t>
+  </si>
+  <si>
+    <t>Team10</t>
+  </si>
+  <si>
+    <t>Core Java Program</t>
+  </si>
+  <si>
+    <t>Core Java Programming</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Team110</t>
+  </si>
+  <si>
+    <t>Invalid Programm</t>
+  </si>
+  <si>
+    <t>Invalid Desc</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>BPROGRAM_NAME</t>
+  </si>
+  <si>
+    <t>BATCH_NAME</t>
+  </si>
+  <si>
+    <t>BATCH_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BATCH_STATUS</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_CLASSSES</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Playwright03</t>
+  </si>
+  <si>
+    <t>Java-003</t>
+  </si>
+  <si>
+    <t>drh</t>
+  </si>
+  <si>
+    <t>ssb</t>
+  </si>
+  <si>
+    <t>Incorrect Batch</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Activ</t>
+  </si>
+  <si>
+    <t>CBATCH_NAME</t>
+  </si>
+  <si>
+    <t>NO_OF_CLASSES</t>
+  </si>
+  <si>
+    <t>CLASS_DATE</t>
+  </si>
+  <si>
+    <t>CLASS_TOPIC</t>
+  </si>
+  <si>
+    <t>STAFF_NAME</t>
+  </si>
+  <si>
+    <t>CLASS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>CLASS_STATUS</t>
+  </si>
+  <si>
+    <t>CLASS_COMMENTS</t>
+  </si>
+  <si>
+    <t>CLASS_NOTES</t>
+  </si>
+  <si>
+    <t>CLASS_RECORDINGS</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SMPO-0001</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>Saranya M</t>
+  </si>
+  <si>
+    <t>SQL Description</t>
+  </si>
+  <si>
+    <t>class comments</t>
+  </si>
+  <si>
+    <t>classnotes</t>
+  </si>
+  <si>
+    <t>sesrecordings</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>Invalid Class batch</t>
+  </si>
+  <si>
+    <t>Invalid class</t>
+  </si>
+  <si>
+    <t>KFDB</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,22 +226,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -254,7 +234,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -271,86 +251,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -409,60 +357,68 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -494,7 +450,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -518,7 +474,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -578,32 +534,31 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
+    <col min="1" max="1" width="23.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -647,38 +602,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="sdetnumpyninja@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Feb@2025"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.66"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="3" max="3" width="22.296875" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -695,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -712,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -730,37 +677,29 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.5"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -783,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -799,14 +738,14 @@
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -822,8 +761,8 @@
       <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false">--F4</f>
+      <c r="F3" s="2">
+        <f>--F4</f>
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -831,42 +770,34 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.5"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -904,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -914,7 +845,7 @@
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>45313</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -942,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -952,7 +883,7 @@
       <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -981,12 +912,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pooja_giri/Desktop/SeleniumHackathon2025/Team_10_LMS_Phase2_2025/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02569C01-AAA5-6E43-A64E-B3A1105453A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="-32620" yWindow="-560" windowWidth="22060" windowHeight="13540" xr2:uid="{645C594F-CC8E-8542-93AC-92A6E1D5C746}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,27 @@
     <sheet name="BATCH" sheetId="3" r:id="rId3"/>
     <sheet name="CLASS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>USER</t>
   </si>
@@ -36,194 +52,272 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>sdetnumpyninja@gmail.com</t>
-  </si>
-  <si>
-    <t>Feb@2025</t>
+    <t>Team10</t>
+  </si>
+  <si>
+    <t>Team10@2025</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>xskau</t>
+  </si>
+  <si>
+    <t>dbr</t>
+  </si>
+  <si>
+    <t>rdb</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>PROGRAM_NAME</t>
+  </si>
+  <si>
+    <t>PROGRAM_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PROGRAM_STATUS</t>
+  </si>
+  <si>
+    <t>BPROGRAM_NAME</t>
+  </si>
+  <si>
+    <t>BATCH_NAME</t>
+  </si>
+  <si>
+    <t>BATCH_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BATCH_STATUS</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_CLASSSES</t>
+  </si>
+  <si>
+    <t>CBATCH_NAME</t>
+  </si>
+  <si>
+    <t>NO_OF_CLASSES</t>
+  </si>
+  <si>
+    <t>CLASS_DATE</t>
+  </si>
+  <si>
+    <t>CLASS_TOPIC</t>
+  </si>
+  <si>
+    <t>STAFF_NAME</t>
+  </si>
+  <si>
+    <t>CLASS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>CLASS_STATUS</t>
+  </si>
+  <si>
+    <t>CLASS_COMMENTS</t>
+  </si>
+  <si>
+    <t>CLASS_NOTES</t>
+  </si>
+  <si>
+    <t>CLASS_RECORDINGS</t>
+  </si>
+  <si>
+    <t>Core Java Program</t>
+  </si>
+  <si>
+    <t>Core Java Programming</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Invalid Programm</t>
+  </si>
+  <si>
+    <t>Invalid Desc</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Team110</t>
+  </si>
+  <si>
+    <t>Playwright03</t>
+  </si>
+  <si>
+    <t>Java-003</t>
+  </si>
+  <si>
+    <t>drh</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ssb</t>
+  </si>
+  <si>
+    <t>Activ</t>
+  </si>
+  <si>
+    <t>Incorrect Batch</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>SMPO-0001</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Saranya M</t>
+  </si>
+  <si>
+    <t>SQL Description</t>
+  </si>
+  <si>
+    <t>class comments</t>
+  </si>
+  <si>
+    <t>classnotes</t>
+  </si>
+  <si>
+    <t>sesrecordings</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>Invalid Class batch</t>
+  </si>
+  <si>
+    <t>Invalid class</t>
+  </si>
+  <si>
+    <t>KFDB</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>APP_TITLE</t>
+  </si>
+  <si>
+    <t>COMPANY_TITLE</t>
+  </si>
+  <si>
+    <t>Please login to LMS application</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Select the role</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>PLEASE_LOGIN_TEXT</t>
+  </si>
+  <si>
+    <t>USER_TEXT</t>
+  </si>
+  <si>
+    <t>PSWD_TEXT</t>
+  </si>
+  <si>
+    <t>SELECT_ROLE_TEXT</t>
+  </si>
+  <si>
+    <t>LOGIN_TEXT</t>
+  </si>
+  <si>
+    <t>ADMIN_ROLE_TEXT</t>
+  </si>
+  <si>
+    <t>STAFF_ROLE_TEXT</t>
+  </si>
+  <si>
+    <t>STUDENT_ROLE_TEXT</t>
+  </si>
+  <si>
+    <t>USER_ERR_TEXT</t>
+  </si>
+  <si>
+    <t>PSWD_ERR_TEXT</t>
+  </si>
+  <si>
+    <t>ROLE_ERR_TEXT</t>
+  </si>
+  <si>
+    <t>NumpyNinja</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>xskau</t>
-  </si>
-  <si>
-    <t>dbr</t>
-  </si>
-  <si>
-    <t>rdb</t>
-  </si>
-  <si>
-    <t>INVALID</t>
-  </si>
-  <si>
-    <t>SEARCH</t>
-  </si>
-  <si>
-    <t>PROGRAM_NAME</t>
-  </si>
-  <si>
-    <t>PROGRAM_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>PROGRAM_STATUS</t>
-  </si>
-  <si>
-    <t>Team10</t>
-  </si>
-  <si>
-    <t>Core Java Program</t>
-  </si>
-  <si>
-    <t>Core Java Programming</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>Team110</t>
-  </si>
-  <si>
-    <t>Invalid Programm</t>
-  </si>
-  <si>
-    <t>Invalid Desc</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>BPROGRAM_NAME</t>
-  </si>
-  <si>
-    <t>BATCH_NAME</t>
-  </si>
-  <si>
-    <t>BATCH_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>BATCH_STATUS</t>
-  </si>
-  <si>
-    <t>NUMBER_OF_CLASSSES</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Playwright03</t>
-  </si>
-  <si>
-    <t>Java-003</t>
-  </si>
-  <si>
-    <t>drh</t>
-  </si>
-  <si>
-    <t>ssb</t>
-  </si>
-  <si>
-    <t>Incorrect Batch</t>
-  </si>
-  <si>
-    <t>Incorrect</t>
-  </si>
-  <si>
-    <t>Activ</t>
-  </si>
-  <si>
-    <t>CBATCH_NAME</t>
-  </si>
-  <si>
-    <t>NO_OF_CLASSES</t>
-  </si>
-  <si>
-    <t>CLASS_DATE</t>
-  </si>
-  <si>
-    <t>CLASS_TOPIC</t>
-  </si>
-  <si>
-    <t>STAFF_NAME</t>
-  </si>
-  <si>
-    <t>CLASS_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>CLASS_STATUS</t>
-  </si>
-  <si>
-    <t>CLASS_COMMENTS</t>
-  </si>
-  <si>
-    <t>CLASS_NOTES</t>
-  </si>
-  <si>
-    <t>CLASS_RECORDINGS</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>SMPO-0001</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>Saranya M</t>
-  </si>
-  <si>
-    <t>SQL Description</t>
-  </si>
-  <si>
-    <t>class comments</t>
-  </si>
-  <si>
-    <t>classnotes</t>
-  </si>
-  <si>
-    <t>sesrecordings</t>
-  </si>
-  <si>
-    <t>incorrect</t>
-  </si>
-  <si>
-    <t>Invalid Class batch</t>
-  </si>
-  <si>
-    <t>Invalid class</t>
-  </si>
-  <si>
-    <t>KFDB</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Please enter your username</t>
+  </si>
+  <si>
+    <t>Please enter your password</t>
+  </si>
+  <si>
+    <t>Please select your Role</t>
+  </si>
+  <si>
+    <t>Team team</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>LMS Learning Management System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -231,7 +325,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -239,7 +333,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -251,12 +345,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79989013336588644"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -266,107 +360,77 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,10 +439,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -413,55 +477,153 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -469,24 +631,33 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -499,7 +670,13 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -509,13 +686,15 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -523,6 +702,7 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -530,35 +710,51 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88901902-0AC2-5E4F-94C8-6E1A0C675D49}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,279 +767,378 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F063D067-56FE-5C4C-BADA-18C1410FB629}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71B04A1-FDDB-F54E-B1DF-F03FF1570599}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC647F8-26E0-6F40-AAF5-B19413C98221}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2">
         <f>--F4</f>
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF19FE3-FD52-7D4B-A0E9-F4D1B0176845}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" customWidth="1"/>
-    <col min="9" max="9" width="17.296875" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4">
         <v>45313</v>
@@ -852,67 +1147,66 @@
         <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pooja_giri/Desktop/SeleniumHackathon2025/Team_10_LMS_Phase2_2025/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02569C01-AAA5-6E43-A64E-B3A1105453A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F981A5-BF39-9D4D-9F48-DA34CD7517E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32620" yWindow="-560" windowWidth="22060" windowHeight="13540" xr2:uid="{645C594F-CC8E-8542-93AC-92A6E1D5C746}"/>
+    <workbookView xWindow="-32620" yWindow="-560" windowWidth="22060" windowHeight="13540" activeTab="3" xr2:uid="{645C594F-CC8E-8542-93AC-92A6E1D5C746}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>USER</t>
   </si>
@@ -130,12 +130,6 @@
     <t>CLASS_RECORDINGS</t>
   </si>
   <si>
-    <t>Core Java Program</t>
-  </si>
-  <si>
-    <t>Core Java Programming</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -145,18 +139,9 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>Invalid Programm</t>
-  </si>
-  <si>
-    <t>Invalid Desc</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
-    <t>Team110</t>
-  </si>
-  <si>
     <t>Playwright03</t>
   </si>
   <si>
@@ -305,13 +290,49 @@
   </si>
   <si>
     <t>LMS Learning Management System</t>
+  </si>
+  <si>
+    <t>EDIT_PROGRAM_NAME</t>
+  </si>
+  <si>
+    <t>EDIT_PROGRAM_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DELETE_PROGRAM</t>
+  </si>
+  <si>
+    <t>Scriptium</t>
+  </si>
+  <si>
+    <t>TeamtenPlayWrightjava</t>
+  </si>
+  <si>
+    <t>TeamtenautomationJava</t>
+  </si>
+  <si>
+    <t>TeamtentutorialJava</t>
+  </si>
+  <si>
+    <t>Teamtenbddbreakers</t>
+  </si>
+  <si>
+    <t>Teamten10$</t>
+  </si>
+  <si>
+    <t>Team10PlayWright</t>
+  </si>
+  <si>
+    <t>TeamtenInvalidDesc</t>
+  </si>
+  <si>
+    <t>345#$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,8 +356,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +376,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79989013336588644"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -402,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +449,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88901902-0AC2-5E4F-94C8-6E1A0C675D49}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -768,43 +806,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -819,43 +857,43 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -887,13 +925,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -909,68 +947,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71B04A1-FDDB-F54E-B1DF-F03FF1570599}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -983,86 +1041,88 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2">
         <f>--F4</f>
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1074,136 +1134,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF19FE3-FD52-7D4B-A0E9-F4D1B0176845}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4">
         <v>45313</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
